--- a/параметры оценки НКО.xlsx
+++ b/параметры оценки НКО.xlsx
@@ -623,8 +623,8 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -646,7 +646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5">
+    <row r="2" spans="1:4" ht="47.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
